--- a/Syllabus_Resources/Python_DS_Weekly Planner_2025_26.xlsx
+++ b/Syllabus_Resources/Python_DS_Weekly Planner_2025_26.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z0021rfv\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F99C21FD-3483-4391-85BF-AC912487545E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ADDF14A-D4C6-4F04-9403-F0544C653D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
   <si>
     <t>Class #</t>
   </si>
@@ -216,19 +216,25 @@
     <t>final project - working session - 4</t>
   </si>
   <si>
-    <t>Final Project -wrapup</t>
-  </si>
-  <si>
     <t>Demonstrations to external judges</t>
   </si>
   <si>
-    <t>Demonstration</t>
-  </si>
-  <si>
     <t>Assignment 9</t>
   </si>
   <si>
+    <t>Assignment 10</t>
+  </si>
+  <si>
     <t>Final Project - iteration 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Final Project - iteration 4</t>
+  </si>
+  <si>
+    <t>Final Project - demonstration</t>
   </si>
 </sst>
 </file>
@@ -609,7 +615,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -617,7 +623,7 @@
     <col min="1" max="1" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" customWidth="1"/>
     <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
@@ -689,6 +695,9 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
       <c r="F4" s="3">
         <v>45926</v>
       </c>
@@ -703,8 +712,11 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F5" s="3">
         <v>45933</v>
@@ -721,7 +733,7 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F6" s="3">
         <v>45940</v>
@@ -738,7 +750,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F7" s="3">
         <v>45947</v>
@@ -772,7 +784,7 @@
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F9" s="3">
         <v>45961</v>
@@ -806,7 +818,7 @@
         <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F11" s="3">
         <v>45975</v>
@@ -822,8 +834,11 @@
       <c r="C12" t="s">
         <v>25</v>
       </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="F12" s="3">
         <v>45982</v>
@@ -885,7 +900,7 @@
         <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F16" s="3">
         <v>46010</v>
@@ -961,7 +976,7 @@
         <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F21" s="3">
         <v>46045</v>
@@ -1012,7 +1027,7 @@
         <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F24" s="3">
         <v>46066</v>
@@ -1063,7 +1078,7 @@
         <v>47</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F27" s="3">
         <v>46087</v>
@@ -1193,7 +1208,7 @@
         <v>60</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F35" s="3">
         <v>46143</v>
@@ -1227,7 +1242,7 @@
         <v>63</v>
       </c>
       <c r="D37" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F37" s="3">
         <v>46157</v>
@@ -1241,10 +1256,10 @@
         <v>46158</v>
       </c>
       <c r="C38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D38" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F38" s="3">
         <v>46164</v>
